--- a/Design/Example.xlsx
+++ b/Design/Example.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2145CB-8AA3-4AF3-9043-7D918E66A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="2805" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3165" yWindow="2483" windowWidth="21600" windowHeight="11332" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
     <sheet name="People" sheetId="4" r:id="rId2"/>
-    <sheet name="Income" sheetId="5" r:id="rId3"/>
+    <sheet name="Inspections" sheetId="6" r:id="rId3"/>
+    <sheet name="Income" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +67,6 @@
     <t>Go over questions for market survey</t>
   </si>
   <si>
-    <t>Commercialization</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -79,16 +89,46 @@
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menu rough draft</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +160,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,31 +191,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,14 +217,23 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -191,6 +244,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +328,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,27 +572,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.46484375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +621,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
         <v>44927</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -541,54 +631,55 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1328125" style="5"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -597,45 +688,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF48EA12-B74A-4954-B0CD-44192C8DA506}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.46484375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5">
+        <v>73</v>
+      </c>
+      <c r="G2" s="12">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="12">
+        <f>SUM(G2:H2)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>18</v>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="10">
         <v>10000</v>
       </c>
-      <c r="B2" s="6">
-        <v>40544</v>
-      </c>
-      <c r="C2" s="6">
-        <v>40695</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="13">
+        <v>44927</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45047</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45078</v>
+      </c>
+      <c r="E2" s="5">
         <v>2011</v>
       </c>
     </row>

--- a/Design/Example.xlsx
+++ b/Design/Example.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2145CB-8AA3-4AF3-9043-7D918E66A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2483" windowWidth="21600" windowHeight="11332" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9698" yWindow="773" windowWidth="21600" windowHeight="11333" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ledger" sheetId="1" r:id="rId1"/>
     <sheet name="People" sheetId="4" r:id="rId2"/>
-    <sheet name="Inspections" sheetId="6" r:id="rId3"/>
-    <sheet name="Income" sheetId="5" r:id="rId4"/>
+    <sheet name="Income" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -76,59 +74,65 @@
     <t>Initials</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>Tax Year</t>
   </si>
   <si>
-    <t>Blake Testerton</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Findings</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
-    <t>Menu rough draft</t>
-  </si>
-  <si>
     <t>Paid</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>Charlie Wonder, Zach Smith</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Testerton</t>
+  </si>
+  <si>
+    <t>ABC, DEF</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,15 +151,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,29 +206,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +317,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,23 +352,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,77 +527,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.46484375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.46484375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.796875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="13">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
         <v>44927</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -653,33 +623,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="5"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>15</v>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -688,142 +670,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF48EA12-B74A-4954-B0CD-44192C8DA506}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.46484375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.06640625" style="5"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="13">
+      <c r="B2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="9">
         <v>44927</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5">
-        <v>73</v>
-      </c>
-      <c r="G2" s="12">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="12">
-        <f>SUM(G2:H2)</f>
-        <v>5</v>
+      <c r="D2" s="9">
+        <v>45047</v>
+      </c>
+      <c r="E2" s="9">
+        <v>45078</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I2" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="10">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="13">
-        <v>44927</v>
-      </c>
-      <c r="C2" s="13">
-        <v>45047</v>
-      </c>
-      <c r="D2" s="13">
-        <v>45078</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2011</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>